--- a/docs/PPG/Notas.xlsx
+++ b/docs/PPG/Notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26437911-F2DE-2445-BF77-322941122B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0964F6-8376-8F4F-855F-BFFFC8B474DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>https://sucupira.capes.gov.br/sucupira/public/consultas/avaliacao/viewPreenchimentoFicha.xhtml?idFicha=6566&amp;popup=true" style="width:100%; height:600px; border:0;</t>
+    <t>Link</t>
   </si>
   <si>
-    <t>Link</t>
+    <t>https://sucupira.capes.gov.br/sucupira/public/consultas/avaliacao/viewPreenchimentoFicha.xhtml?idFicha=3364&amp;popup=true</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,12 +419,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
